--- a/Code/Results/Cases/Case_8_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.85900563810074</v>
+        <v>0.8404774000699149</v>
       </c>
       <c r="C2">
-        <v>0.3505344145374067</v>
+        <v>0.4388662353426867</v>
       </c>
       <c r="D2">
-        <v>0.03161159500526622</v>
+        <v>0.06728676670517331</v>
       </c>
       <c r="E2">
-        <v>0.1039427005034739</v>
+        <v>0.1287893933970565</v>
       </c>
       <c r="F2">
-        <v>3.077805933144091</v>
+        <v>2.187402748176993</v>
       </c>
       <c r="G2">
-        <v>0.0008472031632026166</v>
+        <v>0.04785579508932614</v>
       </c>
       <c r="H2">
-        <v>0.01219670863775696</v>
+        <v>0.005602662608012454</v>
       </c>
       <c r="I2">
-        <v>0.02272731826550167</v>
+        <v>0.009302888064264714</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.70477763003349</v>
+        <v>1.059806239736723</v>
       </c>
       <c r="L2">
-        <v>0.2249942909550242</v>
+        <v>0.4320909992699171</v>
       </c>
       <c r="M2">
-        <v>1.204203209970103</v>
+        <v>0.3632277210572497</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2225950505496144</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.273968001369951</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7471623902148963</v>
+        <v>0.7326051654280832</v>
       </c>
       <c r="C3">
-        <v>0.307116038563862</v>
+        <v>0.3808604822980044</v>
       </c>
       <c r="D3">
-        <v>0.02804908738912815</v>
+        <v>0.05772559412377376</v>
       </c>
       <c r="E3">
-        <v>0.09020446100161195</v>
+        <v>0.1124133554979387</v>
       </c>
       <c r="F3">
-        <v>2.825404746650307</v>
+        <v>2.030592360325755</v>
       </c>
       <c r="G3">
-        <v>0.0008518920100218222</v>
+        <v>0.05667826818303956</v>
       </c>
       <c r="H3">
-        <v>0.01684650762178563</v>
+        <v>0.008293470658445989</v>
       </c>
       <c r="I3">
-        <v>0.028714834640581</v>
+        <v>0.01214096540012699</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.582364229830006</v>
+        <v>1.003754778368538</v>
       </c>
       <c r="L3">
-        <v>0.1955639112157996</v>
+        <v>0.4206989956808869</v>
       </c>
       <c r="M3">
-        <v>1.048725025772399</v>
+        <v>0.3341819071571521</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.195592146417809</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.107254911258821</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6786087034707293</v>
+        <v>0.6662331026006427</v>
       </c>
       <c r="C4">
-        <v>0.2809763311822451</v>
+        <v>0.3456992828122054</v>
       </c>
       <c r="D4">
-        <v>0.02592164183251811</v>
+        <v>0.05198706001782227</v>
       </c>
       <c r="E4">
-        <v>0.08184999641704849</v>
+        <v>0.1024215762373295</v>
       </c>
       <c r="F4">
-        <v>2.669812767675808</v>
+        <v>1.933269392935941</v>
       </c>
       <c r="G4">
-        <v>0.0008548648126516335</v>
+        <v>0.06265400475281169</v>
       </c>
       <c r="H4">
-        <v>0.02018522486063956</v>
+        <v>0.01027817585180581</v>
       </c>
       <c r="I4">
-        <v>0.03290565577913229</v>
+        <v>0.01418526280323951</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.506406477251645</v>
+        <v>0.96846239562894</v>
       </c>
       <c r="L4">
-        <v>0.1775582139568002</v>
+        <v>0.4130582051921436</v>
       </c>
       <c r="M4">
-        <v>0.9538835221430872</v>
+        <v>0.3168726737372012</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1789984783073777</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.005161140024882</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6504896750250566</v>
+        <v>0.6389739587625343</v>
       </c>
       <c r="C5">
-        <v>0.2708901062208042</v>
+        <v>0.3318817665633844</v>
       </c>
       <c r="D5">
-        <v>0.02522387587227115</v>
+        <v>0.0498845327664057</v>
       </c>
       <c r="E5">
-        <v>0.07855084584565475</v>
+        <v>0.09844264072373932</v>
       </c>
       <c r="F5">
-        <v>2.60168839712135</v>
+        <v>1.890189128643669</v>
       </c>
       <c r="G5">
-        <v>0.0008561104481477407</v>
+        <v>0.0652442163868181</v>
       </c>
       <c r="H5">
-        <v>0.02167258490213841</v>
+        <v>0.01117240461428914</v>
       </c>
       <c r="I5">
-        <v>0.03484706304269558</v>
+        <v>0.01519746633012442</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.471948536629071</v>
+        <v>0.9517649539626021</v>
       </c>
       <c r="L5">
-        <v>0.1701444579096361</v>
+        <v>0.4089158087959746</v>
       </c>
       <c r="M5">
-        <v>0.9156544842674634</v>
+        <v>0.3092498054878661</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1721583779106766</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9638431498649709</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6455732902743989</v>
+        <v>0.6342341839488483</v>
       </c>
       <c r="C6">
-        <v>0.2697691576945545</v>
+        <v>0.3300907761461076</v>
       </c>
       <c r="D6">
-        <v>0.02529961526057889</v>
+        <v>0.04978801066840788</v>
       </c>
       <c r="E6">
-        <v>0.07811130912189412</v>
+        <v>0.09787930545451573</v>
       </c>
       <c r="F6">
-        <v>2.584814957229156</v>
+        <v>1.879172501860907</v>
       </c>
       <c r="G6">
-        <v>0.0008563311278796246</v>
+        <v>0.06570650051318916</v>
       </c>
       <c r="H6">
-        <v>0.02193920979309261</v>
+        <v>0.01133214434066687</v>
       </c>
       <c r="I6">
-        <v>0.0353180729036584</v>
+        <v>0.01550865913661692</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.462187748327224</v>
+        <v>0.9464239846695222</v>
       </c>
       <c r="L6">
-        <v>0.1688066081367836</v>
+        <v>0.4071622831017621</v>
       </c>
       <c r="M6">
-        <v>0.9096611650527962</v>
+        <v>0.3071366907685373</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1709344043366627</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.957268723632609</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6775464574321575</v>
+        <v>0.6664388230462635</v>
       </c>
       <c r="C7">
-        <v>0.2823356556403098</v>
+        <v>0.3437087418114118</v>
       </c>
       <c r="D7">
-        <v>0.0264337806426056</v>
+        <v>0.05390294660730888</v>
       </c>
       <c r="E7">
-        <v>0.08209920459978548</v>
+        <v>0.1031075623380708</v>
       </c>
       <c r="F7">
-        <v>2.653710851558273</v>
+        <v>1.903361841988541</v>
       </c>
       <c r="G7">
-        <v>0.000854914936462059</v>
+        <v>0.06341618706247765</v>
       </c>
       <c r="H7">
-        <v>0.02023784356129155</v>
+        <v>0.0103413281629799</v>
       </c>
       <c r="I7">
-        <v>0.03329674103336799</v>
+        <v>0.01460524994882739</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.494924300914903</v>
+        <v>0.9506766956150798</v>
       </c>
       <c r="L7">
-        <v>0.1771630343240247</v>
+        <v>0.4058387466027753</v>
       </c>
       <c r="M7">
-        <v>0.9543131136233853</v>
+        <v>0.3107972154437348</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1782236818005529</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.003463197662427</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8194845453533617</v>
+        <v>0.8063846473365004</v>
       </c>
       <c r="C8">
-        <v>0.3374407010350922</v>
+        <v>0.4099458072077766</v>
       </c>
       <c r="D8">
-        <v>0.03106828031896214</v>
+        <v>0.06919678578366728</v>
       </c>
       <c r="E8">
-        <v>0.09957991538767175</v>
+        <v>0.1250849884012517</v>
       </c>
       <c r="F8">
-        <v>2.97071817046799</v>
+        <v>2.057730515388684</v>
       </c>
       <c r="G8">
-        <v>0.0008488432237405478</v>
+        <v>0.05359327956519522</v>
       </c>
       <c r="H8">
-        <v>0.01373144223630823</v>
+        <v>0.006564005905452586</v>
       </c>
       <c r="I8">
-        <v>0.02511237811825318</v>
+        <v>0.01077498424674417</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.648090373748772</v>
+        <v>0.9969191250534806</v>
       </c>
       <c r="L8">
-        <v>0.2144309862349587</v>
+        <v>0.4111592112317126</v>
       </c>
       <c r="M8">
-        <v>1.151695306746035</v>
+        <v>0.3375092194399869</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2114775430591749</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.210961460472589</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.100522941492301</v>
+        <v>1.076829203788947</v>
       </c>
       <c r="C9">
-        <v>0.4474503054828176</v>
+        <v>0.5528055623894659</v>
       </c>
       <c r="D9">
-        <v>0.03972590330508297</v>
+        <v>0.094395105980837</v>
       </c>
       <c r="E9">
-        <v>0.1340901962887671</v>
+        <v>0.1665618485441343</v>
       </c>
       <c r="F9">
-        <v>3.615942597944326</v>
+        <v>2.438982918569295</v>
       </c>
       <c r="G9">
-        <v>0.0008376028664777853</v>
+        <v>0.03504465988896488</v>
       </c>
       <c r="H9">
-        <v>0.005018787762125498</v>
+        <v>0.001804370253126075</v>
       </c>
       <c r="I9">
-        <v>0.01286407760688668</v>
+        <v>0.005077910734444302</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.962362644292838</v>
+        <v>1.130974278933401</v>
       </c>
       <c r="L9">
-        <v>0.288802238127758</v>
+        <v>0.436797187504709</v>
       </c>
       <c r="M9">
-        <v>1.543017544135381</v>
+        <v>0.4113915389595704</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2787408256763229</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.626146019341718</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.310348813408581</v>
+        <v>1.284861724199629</v>
       </c>
       <c r="C10">
-        <v>0.5269772778824517</v>
+        <v>0.63414949040083</v>
       </c>
       <c r="D10">
-        <v>0.04586081523594032</v>
+        <v>0.1200431107239694</v>
       </c>
       <c r="E10">
-        <v>0.1531803914945584</v>
+        <v>0.1924191075531212</v>
       </c>
       <c r="F10">
-        <v>3.99831356156497</v>
+        <v>2.550316855199313</v>
       </c>
       <c r="G10">
-        <v>0.0008299779447767947</v>
+        <v>0.03336350406162936</v>
       </c>
       <c r="H10">
-        <v>0.001819102367239811</v>
+        <v>0.0005207823095769726</v>
       </c>
       <c r="I10">
-        <v>0.007196108786131639</v>
+        <v>0.002953293611890118</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.138553182656665</v>
+        <v>1.139857348114006</v>
       </c>
       <c r="L10">
-        <v>0.3271782075379406</v>
+        <v>0.4221918300826317</v>
       </c>
       <c r="M10">
-        <v>1.832034031517651</v>
+        <v>0.4346061039981564</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3095452589693792</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.916971615868306</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.423699932382391</v>
+        <v>1.416776636706516</v>
       </c>
       <c r="C11">
-        <v>0.517294949874298</v>
+        <v>0.5735298893886807</v>
       </c>
       <c r="D11">
-        <v>0.04229772866945325</v>
+        <v>0.1278214725178088</v>
       </c>
       <c r="E11">
-        <v>0.1067594474919886</v>
+        <v>0.1436264920536168</v>
       </c>
       <c r="F11">
-        <v>3.452447296721459</v>
+        <v>1.992943799705884</v>
       </c>
       <c r="G11">
-        <v>0.0008283419595160879</v>
+        <v>0.06736231089827172</v>
       </c>
       <c r="H11">
-        <v>0.02042452570282549</v>
+        <v>0.0191890342049561</v>
       </c>
       <c r="I11">
-        <v>0.00677738827615304</v>
+        <v>0.003346334690165875</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.819099721016073</v>
+        <v>0.8578995186688516</v>
       </c>
       <c r="L11">
-        <v>0.2137684876807882</v>
+        <v>0.316196342292443</v>
       </c>
       <c r="M11">
-        <v>1.930410580993453</v>
+        <v>0.3307063863742528</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1970425911047684</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.984767285880565</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.477022818465997</v>
+        <v>1.482457892406586</v>
       </c>
       <c r="C12">
-        <v>0.4897923958053809</v>
+        <v>0.5170312678824018</v>
       </c>
       <c r="D12">
-        <v>0.03743935296506606</v>
+        <v>0.1222084515823951</v>
       </c>
       <c r="E12">
-        <v>0.07076727000736938</v>
+        <v>0.1021023878348331</v>
       </c>
       <c r="F12">
-        <v>2.970661479602484</v>
+        <v>1.621262158360025</v>
       </c>
       <c r="G12">
-        <v>0.0008283617308095281</v>
+        <v>0.09252090492486786</v>
       </c>
       <c r="H12">
-        <v>0.05943936573075348</v>
+        <v>0.05804547318611952</v>
       </c>
       <c r="I12">
-        <v>0.006795053561615028</v>
+        <v>0.003377558947343928</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.552969320865429</v>
+        <v>0.6880619415949525</v>
       </c>
       <c r="L12">
-        <v>0.1324032183385881</v>
+        <v>0.2557175917826129</v>
       </c>
       <c r="M12">
-        <v>1.949747407639023</v>
+        <v>0.2644970343333526</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1200351028576137</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.985743791738628</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.485571269668895</v>
+        <v>1.495468208774383</v>
       </c>
       <c r="C13">
-        <v>0.4495378428651122</v>
+        <v>0.4681074932448723</v>
       </c>
       <c r="D13">
-        <v>0.03213000094833518</v>
+        <v>0.1040975390097287</v>
       </c>
       <c r="E13">
-        <v>0.04139481758344132</v>
+        <v>0.06460503841733711</v>
       </c>
       <c r="F13">
-        <v>2.488465226813119</v>
+        <v>1.3636490357366</v>
       </c>
       <c r="G13">
-        <v>0.0008297030301845328</v>
+        <v>0.08797312823320169</v>
       </c>
       <c r="H13">
-        <v>0.1158921223469349</v>
+        <v>0.1140965734016248</v>
       </c>
       <c r="I13">
-        <v>0.007590296437667732</v>
+        <v>0.003614507438856052</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.295978393826303</v>
+        <v>0.5841882242910899</v>
       </c>
       <c r="L13">
-        <v>0.07096376643245605</v>
+        <v>0.220735143217766</v>
       </c>
       <c r="M13">
-        <v>1.910640467013337</v>
+        <v>0.2214931563149349</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0651031830809039</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.941677599225187</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.471095526805044</v>
+        <v>1.480505039672636</v>
       </c>
       <c r="C14">
-        <v>0.4163753136285209</v>
+        <v>0.436665060051439</v>
       </c>
       <c r="D14">
-        <v>0.02839760164101079</v>
+        <v>0.08718638976967696</v>
       </c>
       <c r="E14">
-        <v>0.02509902313750878</v>
+        <v>0.04228497441756041</v>
       </c>
       <c r="F14">
-        <v>2.154991685305788</v>
+        <v>1.223251235358802</v>
       </c>
       <c r="G14">
-        <v>0.0008312329402001608</v>
+        <v>0.07251234387129557</v>
       </c>
       <c r="H14">
-        <v>0.1659438225687637</v>
+        <v>0.1637284008035493</v>
       </c>
       <c r="I14">
-        <v>0.008654463379490274</v>
+        <v>0.004006296923734887</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.122265233616439</v>
+        <v>0.5337688991576073</v>
       </c>
       <c r="L14">
-        <v>0.04027224092643422</v>
+        <v>0.2046230295927174</v>
       </c>
       <c r="M14">
-        <v>1.857361490776015</v>
+        <v>0.1994092174859787</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03903529280725948</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.890474573839526</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.457573230123558</v>
+        <v>1.465361876473622</v>
       </c>
       <c r="C15">
-        <v>0.4062013801516855</v>
+        <v>0.4299558004778703</v>
       </c>
       <c r="D15">
-        <v>0.02753060902152527</v>
+        <v>0.0813873417649944</v>
       </c>
       <c r="E15">
-        <v>0.02163144160300412</v>
+        <v>0.03715054422901609</v>
       </c>
       <c r="F15">
-        <v>2.065792935328247</v>
+        <v>1.199596009587893</v>
       </c>
       <c r="G15">
-        <v>0.0008319173100313379</v>
+        <v>0.06455288036369211</v>
       </c>
       <c r="H15">
-        <v>0.1787676154178968</v>
+        <v>0.1763627159234602</v>
       </c>
       <c r="I15">
-        <v>0.009263877489019023</v>
+        <v>0.004316592793041529</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.076481407455724</v>
+        <v>0.5276078761819747</v>
       </c>
       <c r="L15">
-        <v>0.03425675418334251</v>
+        <v>0.2030872304889222</v>
       </c>
       <c r="M15">
-        <v>1.832520422905276</v>
+        <v>0.1960874714696104</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03426293580689332</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.868418073958736</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.364232061726511</v>
+        <v>1.3597488729649</v>
       </c>
       <c r="C16">
-        <v>0.3818976899844415</v>
+        <v>0.4313398147314729</v>
       </c>
       <c r="D16">
-        <v>0.0263414858065687</v>
+        <v>0.06479450737217007</v>
       </c>
       <c r="E16">
-        <v>0.02066560788414229</v>
+        <v>0.03368096835030521</v>
       </c>
       <c r="F16">
-        <v>2.00414572679243</v>
+        <v>1.301219608040739</v>
       </c>
       <c r="G16">
-        <v>0.0008348986421572547</v>
+        <v>0.03819745080664561</v>
       </c>
       <c r="H16">
-        <v>0.1675370586353608</v>
+        <v>0.1642329806049929</v>
       </c>
       <c r="I16">
-        <v>0.01163023714088318</v>
+        <v>0.005221672694167623</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.053868052789895</v>
+        <v>0.5895969497871931</v>
       </c>
       <c r="L16">
-        <v>0.03286053117573573</v>
+        <v>0.227919995132897</v>
       </c>
       <c r="M16">
-        <v>1.717120469388391</v>
+        <v>0.2164702321323908</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03482323120725539</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.771780266158657</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.300519306536955</v>
+        <v>1.289257339350343</v>
       </c>
       <c r="C17">
-        <v>0.3808199354856754</v>
+        <v>0.4457223772504904</v>
       </c>
       <c r="D17">
-        <v>0.02741340668688963</v>
+        <v>0.06213638678266875</v>
       </c>
       <c r="E17">
-        <v>0.02771346613564418</v>
+        <v>0.0415357916558694</v>
       </c>
       <c r="F17">
-        <v>2.127933432653251</v>
+        <v>1.446003706732782</v>
       </c>
       <c r="G17">
-        <v>0.0008363892594241703</v>
+        <v>0.0332467656805493</v>
       </c>
       <c r="H17">
-        <v>0.1305523308939911</v>
+        <v>0.1267786772395425</v>
       </c>
       <c r="I17">
-        <v>0.01294277099082564</v>
+        <v>0.005762455440969205</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.125101046483863</v>
+        <v>0.6620827432209495</v>
       </c>
       <c r="L17">
-        <v>0.04562239878829999</v>
+        <v>0.2559943148965047</v>
       </c>
       <c r="M17">
-        <v>1.657091525925352</v>
+        <v>0.2420756818544909</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04736162361259133</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.721807507304248</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.255723793508793</v>
+        <v>1.23865124112919</v>
       </c>
       <c r="C18">
-        <v>0.3984790291046068</v>
+        <v>0.4786745309592959</v>
       </c>
       <c r="D18">
-        <v>0.03030176881286195</v>
+        <v>0.06763158411485648</v>
       </c>
       <c r="E18">
-        <v>0.04616407632882158</v>
+        <v>0.06339060726892143</v>
       </c>
       <c r="F18">
-        <v>2.454143101699216</v>
+        <v>1.690743090550527</v>
       </c>
       <c r="G18">
-        <v>0.0008366579313878715</v>
+        <v>0.03183654831340865</v>
       </c>
       <c r="H18">
-        <v>0.07766602496174357</v>
+        <v>0.07389167869578017</v>
       </c>
       <c r="I18">
-        <v>0.01291860075659379</v>
+        <v>0.005563064728757006</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.304125879170073</v>
+        <v>0.7757921912352685</v>
       </c>
       <c r="L18">
-        <v>0.0829863959377235</v>
+        <v>0.2984154448161433</v>
       </c>
       <c r="M18">
-        <v>1.636336336959658</v>
+        <v>0.2845171687676071</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08276681643864237</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.709801804327014</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.228279423269669</v>
+        <v>1.205708975099299</v>
       </c>
       <c r="C19">
-        <v>0.4331489157236206</v>
+        <v>0.5302366810296064</v>
       </c>
       <c r="D19">
-        <v>0.0355839849286923</v>
+        <v>0.08005879052176113</v>
       </c>
       <c r="E19">
-        <v>0.07870379770443847</v>
+        <v>0.101573095614512</v>
       </c>
       <c r="F19">
-        <v>2.929254346515151</v>
+        <v>2.013290211379555</v>
       </c>
       <c r="G19">
-        <v>0.0008358619595665331</v>
+        <v>0.03041301521671258</v>
       </c>
       <c r="H19">
-        <v>0.03146363023220999</v>
+        <v>0.02815460111503398</v>
       </c>
       <c r="I19">
-        <v>0.01235991090236777</v>
+        <v>0.005440030849973354</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.561182807961231</v>
+        <v>0.9205327182287348</v>
       </c>
       <c r="L19">
-        <v>0.15384519667397</v>
+        <v>0.3513352421307516</v>
       </c>
       <c r="M19">
-        <v>1.650182376889944</v>
+        <v>0.3399251299634543</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1499927296324444</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.732345973948583</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.252884883780354</v>
+        <v>1.224172203866374</v>
       </c>
       <c r="C20">
-        <v>0.5103611462681386</v>
+        <v>0.6283840789327542</v>
       </c>
       <c r="D20">
-        <v>0.04589505103361802</v>
+        <v>0.1104660130385469</v>
       </c>
       <c r="E20">
-        <v>0.1487644409268967</v>
+        <v>0.1843338978491005</v>
       </c>
       <c r="F20">
-        <v>3.846990257227333</v>
+        <v>2.552941981845962</v>
       </c>
       <c r="G20">
-        <v>0.0008320551893101521</v>
+        <v>0.02818941524039786</v>
       </c>
       <c r="H20">
-        <v>0.002490587608582562</v>
+        <v>0.0007083344236282763</v>
       </c>
       <c r="I20">
-        <v>0.00943324887655006</v>
+        <v>0.0043726074178565</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.056207326123754</v>
+        <v>1.152067578473762</v>
       </c>
       <c r="L20">
-        <v>0.3153756877672009</v>
+        <v>0.4311246128222379</v>
       </c>
       <c r="M20">
-        <v>1.758467371016337</v>
+        <v>0.4341321098688127</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3016440280785702</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.850006947116242</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.411865133080738</v>
+        <v>1.402841914521161</v>
       </c>
       <c r="C21">
-        <v>0.5805216998887488</v>
+        <v>0.6414850241440604</v>
       </c>
       <c r="D21">
-        <v>0.05173941770011226</v>
+        <v>0.1627548960519647</v>
       </c>
       <c r="E21">
-        <v>0.1743963011070662</v>
+        <v>0.2267254242512777</v>
       </c>
       <c r="F21">
-        <v>4.279694253124688</v>
+        <v>2.393361045623735</v>
       </c>
       <c r="G21">
-        <v>0.0008259769822472607</v>
+        <v>0.08670739263754257</v>
       </c>
       <c r="H21">
-        <v>0.0005243437432951303</v>
+        <v>3.765824987489452E-05</v>
       </c>
       <c r="I21">
-        <v>0.005699873173929504</v>
+        <v>0.003217548465930697</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.269180277058425</v>
+        <v>1.021422855826238</v>
       </c>
       <c r="L21">
-        <v>0.3714797958858753</v>
+        <v>0.3725019695480754</v>
       </c>
       <c r="M21">
-        <v>1.987905295489355</v>
+        <v>0.3972089798834872</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3415401128709448</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.042331945016031</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.518378768691832</v>
+        <v>1.524688657166593</v>
       </c>
       <c r="C22">
-        <v>0.6224248019750576</v>
+        <v>0.6406014364021075</v>
       </c>
       <c r="D22">
-        <v>0.05447552288880786</v>
+        <v>0.2003982961839625</v>
       </c>
       <c r="E22">
-        <v>0.1873324585339944</v>
+        <v>0.2513641220013412</v>
       </c>
       <c r="F22">
-        <v>4.54072141313867</v>
+        <v>2.259375861656324</v>
       </c>
       <c r="G22">
-        <v>0.0008221384458407111</v>
+        <v>0.1735727024845275</v>
       </c>
       <c r="H22">
-        <v>5.041199995359236E-05</v>
+        <v>2.353663941434547E-05</v>
       </c>
       <c r="I22">
-        <v>0.003663298356067379</v>
+        <v>0.00233467374631946</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.399177341448663</v>
+        <v>0.9275502992892584</v>
       </c>
       <c r="L22">
-        <v>0.4002534709246248</v>
+        <v>0.3330777035415053</v>
       </c>
       <c r="M22">
-        <v>2.13608340822654</v>
+        <v>0.3682789376458899</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.359131463744859</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.161321004698948</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.462368305231081</v>
+        <v>1.456993723030763</v>
       </c>
       <c r="C23">
-        <v>0.5981563821386544</v>
+        <v>0.6477698689783438</v>
       </c>
       <c r="D23">
-        <v>0.05234992139970984</v>
+        <v>0.1744935744438578</v>
       </c>
       <c r="E23">
-        <v>0.1800502524233707</v>
+        <v>0.2363812256879498</v>
       </c>
       <c r="F23">
-        <v>4.419502711286867</v>
+        <v>2.384625438931664</v>
       </c>
       <c r="G23">
-        <v>0.0008241475092482614</v>
+        <v>0.1086184623569153</v>
       </c>
       <c r="H23">
-        <v>0.0002366805639830716</v>
+        <v>4.07331994800586E-07</v>
       </c>
       <c r="I23">
-        <v>0.004337281969917228</v>
+        <v>0.00237176776566983</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.342963365630098</v>
+        <v>1.006365675599874</v>
       </c>
       <c r="L23">
-        <v>0.385254058261367</v>
+        <v>0.3638023995559578</v>
       </c>
       <c r="M23">
-        <v>2.055782442684006</v>
+        <v>0.3955074451791916</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3512236140840628</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.102363584958596</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.249988778980224</v>
+        <v>1.22035330339159</v>
       </c>
       <c r="C24">
-        <v>0.5109282086815199</v>
+        <v>0.6315003702472097</v>
       </c>
       <c r="D24">
-        <v>0.04549422136726378</v>
+        <v>0.1103107539149448</v>
       </c>
       <c r="E24">
-        <v>0.153391398106578</v>
+        <v>0.1896907551407452</v>
       </c>
       <c r="F24">
-        <v>3.933401843073966</v>
+        <v>2.613065784909367</v>
       </c>
       <c r="G24">
-        <v>0.0008319358151599416</v>
+        <v>0.02782947932662783</v>
       </c>
       <c r="H24">
-        <v>0.002253289840990158</v>
+        <v>0.0005376489219437453</v>
       </c>
       <c r="I24">
-        <v>0.008795671612341849</v>
+        <v>0.003710220609098869</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.109095814543707</v>
+        <v>1.183613474393098</v>
       </c>
       <c r="L24">
-        <v>0.3283840567853247</v>
+        <v>0.4426791738643914</v>
       </c>
       <c r="M24">
-        <v>1.75624576835412</v>
+        <v>0.446187018801588</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3140402382178138</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.849170213593311</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.022958350691056</v>
+        <v>1.000968079004934</v>
       </c>
       <c r="C25">
-        <v>0.419862209688489</v>
+        <v>0.5208141881475399</v>
       </c>
       <c r="D25">
-        <v>0.03829923314376771</v>
+        <v>0.08686352698376254</v>
       </c>
       <c r="E25">
-        <v>0.125198043124719</v>
+        <v>0.1550559419440063</v>
       </c>
       <c r="F25">
-        <v>3.413961648961248</v>
+        <v>2.344560476976284</v>
       </c>
       <c r="G25">
-        <v>0.0008406248048802059</v>
+        <v>0.03822776322816956</v>
       </c>
       <c r="H25">
-        <v>0.006933338546805112</v>
+        <v>0.002759405568564244</v>
       </c>
       <c r="I25">
-        <v>0.01623779401666514</v>
+        <v>0.006873693416642901</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.857867443415202</v>
+        <v>1.097998047282992</v>
       </c>
       <c r="L25">
-        <v>0.2680067423965369</v>
+        <v>0.4313647714114239</v>
       </c>
       <c r="M25">
-        <v>1.438051421688982</v>
+        <v>0.3919032859470448</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2607275453103171</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.517689191187969</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
